--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9BE1CD-F87C-48BA-8037-60168F9F53E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419A55F3-AB3E-4C88-9060-EEF0D0F5FC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{54BBC9A4-988D-4D84-8111-8D5B9EAB5D47}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>barang_nama</t>
   </si>
   <si>
-    <t>barang_beli</t>
-  </si>
-  <si>
-    <t>barang_jual</t>
-  </si>
-  <si>
     <t>SBK-003</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Cleo</t>
+  </si>
+  <si>
+    <t>harga_beli</t>
+  </si>
+  <si>
+    <t>harga_jual</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>22000</v>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>11500</v>
@@ -501,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>17500</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>89000</v>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>3750</v>
